--- a/nba2k_editor/Offsets/Shoes.xlsx
+++ b/nba2k_editor/Offsets/Shoes.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Shoes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Shoes Vitals" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Shoes Gear" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Shoes Gear" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,258 +413,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Normalized Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2K22_Offsets.json</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>2K23_Offsets.json</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2K24_Offsets.json</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>2k25_offsets.json</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>2k26_offsets.json</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Shoe Away Colorway</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Shoes</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SHOEAWAYCOLORWAY</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0x180 (type=Integer)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Shoe Home Colorway</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Shoes</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SHOEHOMECOLORWAY</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0x17C (type=Integer)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Shoe Locked Vendor</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Shoes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SHOELOCKEDVENDOR</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0x17B (type=Binary, length=5, startBit=2)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Normalized Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2K22_Offsets.json</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>2K23_Offsets.json</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2K24_Offsets.json</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>2k25_offsets.json</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>2k26_offsets.json</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Shoes Vitals</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0x0 (type=Integer)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Shoes Vitals</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0x10 (type=WString, length=80)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
